--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H2">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N2">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O2">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P2">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q2">
-        <v>0.1058639579812223</v>
+        <v>1.91348831076</v>
       </c>
       <c r="R2">
-        <v>0.9527756218310002</v>
+        <v>17.22139479684</v>
       </c>
       <c r="S2">
-        <v>0.001392957847297281</v>
+        <v>0.02692860696297409</v>
       </c>
       <c r="T2">
-        <v>0.001392957847297281</v>
+        <v>0.0269286069629741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H3">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.466975</v>
       </c>
       <c r="O3">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P3">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q3">
-        <v>2.393039816147223</v>
+        <v>2.7269561202</v>
       </c>
       <c r="R3">
-        <v>21.537358345325</v>
+        <v>24.5426050818</v>
       </c>
       <c r="S3">
-        <v>0.03148761537319795</v>
+        <v>0.03837657599119398</v>
       </c>
       <c r="T3">
-        <v>0.03148761537319796</v>
+        <v>0.03837657599119398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H4">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I4">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J4">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N4">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O4">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P4">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q4">
-        <v>4.27657106940989</v>
+        <v>3.385008333408</v>
       </c>
       <c r="R4">
-        <v>38.489139624689</v>
+        <v>30.465075000672</v>
       </c>
       <c r="S4">
-        <v>0.05627111761413336</v>
+        <v>0.0476373743514177</v>
       </c>
       <c r="T4">
-        <v>0.05627111761413336</v>
+        <v>0.0476373743514177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H5">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I5">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J5">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N5">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O5">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P5">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q5">
-        <v>1.134573413547445</v>
+        <v>0.04532663210399999</v>
       </c>
       <c r="R5">
-        <v>10.211160721927</v>
+        <v>0.407939688936</v>
       </c>
       <c r="S5">
-        <v>0.01492871577705515</v>
+        <v>0.0006378837299503272</v>
       </c>
       <c r="T5">
-        <v>0.01492871577705515</v>
+        <v>0.0006378837299503273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>4.755688</v>
       </c>
       <c r="I6">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J6">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N6">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O6">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P6">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q6">
-        <v>0.08104379284711112</v>
+        <v>1.285491528937778</v>
       </c>
       <c r="R6">
-        <v>0.729394135624</v>
+        <v>11.56942376044</v>
       </c>
       <c r="S6">
-        <v>0.001066374140679142</v>
+        <v>0.01809078003891702</v>
       </c>
       <c r="T6">
-        <v>0.001066374140679142</v>
+        <v>0.01809078003891702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.755688</v>
       </c>
       <c r="I7">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J7">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>3.466975</v>
       </c>
       <c r="O7">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P7">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q7">
         <v>1.831983489311111</v>
@@ -889,10 +889,10 @@
         <v>16.4878514038</v>
       </c>
       <c r="S7">
-        <v>0.02410523681730857</v>
+        <v>0.02578158594902666</v>
       </c>
       <c r="T7">
-        <v>0.02410523681730858</v>
+        <v>0.02578158594902666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.755688</v>
       </c>
       <c r="I8">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J8">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N8">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O8">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P8">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q8">
-        <v>3.273914431828445</v>
+        <v>2.274066433283556</v>
       </c>
       <c r="R8">
-        <v>29.465229886456</v>
+        <v>20.466597899552</v>
       </c>
       <c r="S8">
-        <v>0.04307816263590071</v>
+        <v>0.03200303908063223</v>
       </c>
       <c r="T8">
-        <v>0.04307816263590071</v>
+        <v>0.03200303908063223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>4.755688</v>
       </c>
       <c r="I9">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J9">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N9">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O9">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P9">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q9">
-        <v>0.8685688165342224</v>
+        <v>0.030450670264</v>
       </c>
       <c r="R9">
-        <v>7.817119348808001</v>
+        <v>0.274056032376</v>
       </c>
       <c r="S9">
-        <v>0.01142862757052463</v>
+        <v>0.000428533650656425</v>
       </c>
       <c r="T9">
-        <v>0.01142862757052463</v>
+        <v>0.0004285336506564251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H10">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I10">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J10">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N10">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O10">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P10">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q10">
-        <v>0.1154382334233333</v>
+        <v>2.447548853461111</v>
       </c>
       <c r="R10">
-        <v>1.03894410081</v>
+        <v>22.02793968115</v>
       </c>
       <c r="S10">
-        <v>0.001518936153451674</v>
+        <v>0.0344444649736869</v>
       </c>
       <c r="T10">
-        <v>0.001518936153451675</v>
+        <v>0.03444446497368691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H11">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I11">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J11">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>3.466975</v>
       </c>
       <c r="O11">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P11">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q11">
-        <v>2.609464960083333</v>
+        <v>3.488058060194444</v>
       </c>
       <c r="R11">
-        <v>23.48518464075</v>
+        <v>31.39252254174999</v>
       </c>
       <c r="S11">
-        <v>0.03433533718850852</v>
+        <v>0.04908759778611005</v>
       </c>
       <c r="T11">
-        <v>0.03433533718850854</v>
+        <v>0.04908759778611006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H12">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I12">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J12">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N12">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O12">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P12">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q12">
-        <v>4.663341696043334</v>
+        <v>4.329774694102221</v>
       </c>
       <c r="R12">
-        <v>41.97007526439</v>
+        <v>38.96797224692</v>
       </c>
       <c r="S12">
-        <v>0.06136024511084669</v>
+        <v>0.06093311379017569</v>
       </c>
       <c r="T12">
-        <v>0.0613602451108467</v>
+        <v>0.06093311379017569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H13">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I13">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J13">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N13">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O13">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P13">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q13">
-        <v>1.237183580196667</v>
+        <v>0.05797743619</v>
       </c>
       <c r="R13">
-        <v>11.13465222177</v>
+        <v>0.5217969257099999</v>
       </c>
       <c r="S13">
-        <v>0.01627886024144282</v>
+        <v>0.0008159190642044329</v>
       </c>
       <c r="T13">
-        <v>0.01627886024144282</v>
+        <v>0.0008159190642044331</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H14">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I14">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J14">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N14">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O14">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P14">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q14">
-        <v>0.157297968443</v>
+        <v>1.405020620965</v>
       </c>
       <c r="R14">
-        <v>1.415681715987</v>
+        <v>12.645185588685</v>
       </c>
       <c r="S14">
-        <v>0.002069726502625772</v>
+        <v>0.01977291832099715</v>
       </c>
       <c r="T14">
-        <v>0.002069726502625773</v>
+        <v>0.01977291832099715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H15">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I15">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J15">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.466975</v>
       </c>
       <c r="O15">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P15">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q15">
-        <v>3.555698357224999</v>
+        <v>2.002327142425</v>
       </c>
       <c r="R15">
-        <v>32.00128521502499</v>
+        <v>18.020944281825</v>
       </c>
       <c r="S15">
-        <v>0.04678587522863207</v>
+        <v>0.02817883983218165</v>
       </c>
       <c r="T15">
-        <v>0.04678587522863209</v>
+        <v>0.02817883983218166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H16">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I16">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J16">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N16">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O16">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P16">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q16">
-        <v>6.354343385117</v>
+        <v>2.485516364972</v>
       </c>
       <c r="R16">
-        <v>57.189090466053</v>
+        <v>22.369647284748</v>
       </c>
       <c r="S16">
-        <v>0.08361044354954411</v>
+        <v>0.03497878346891348</v>
       </c>
       <c r="T16">
-        <v>0.08361044354954413</v>
+        <v>0.03497878346891348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H17">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I17">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J17">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N17">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O17">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P17">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q17">
-        <v>1.685805975931</v>
+        <v>0.033282070461</v>
       </c>
       <c r="R17">
-        <v>15.172253783379</v>
+        <v>0.2995386341489999</v>
       </c>
       <c r="S17">
-        <v>0.02218183325065422</v>
+        <v>0.0004683800728326949</v>
       </c>
       <c r="T17">
-        <v>0.02218183325065423</v>
+        <v>0.000468380072832695</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H18">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I18">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J18">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N18">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O18">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P18">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q18">
-        <v>0.373882116663</v>
+        <v>7.77641812974</v>
       </c>
       <c r="R18">
-        <v>3.364939049967</v>
+        <v>69.98776316765999</v>
       </c>
       <c r="S18">
-        <v>0.004919540496135816</v>
+        <v>0.1094378817043004</v>
       </c>
       <c r="T18">
-        <v>0.004919540496135817</v>
+        <v>0.1094378817043005</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H19">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I19">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J19">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>3.466975</v>
       </c>
       <c r="O19">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P19">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q19">
-        <v>8.451552433725</v>
+        <v>11.0823520023</v>
       </c>
       <c r="R19">
-        <v>76.063971903525</v>
+        <v>99.74116802069999</v>
       </c>
       <c r="S19">
-        <v>0.1112055179959346</v>
+        <v>0.1559624376156937</v>
       </c>
       <c r="T19">
-        <v>0.1112055179959346</v>
+        <v>0.1559624376156938</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H20">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I20">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J20">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N20">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O20">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P20">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q20">
-        <v>15.103662039297</v>
+        <v>13.756676758992</v>
       </c>
       <c r="R20">
-        <v>135.932958353673</v>
+        <v>123.810090830928</v>
       </c>
       <c r="S20">
-        <v>0.1987339691597077</v>
+        <v>0.1935983300637155</v>
       </c>
       <c r="T20">
-        <v>0.1987339691597077</v>
+        <v>0.1935983300637155</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H21">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I21">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J21">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N21">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O21">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P21">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q21">
-        <v>4.006998391671001</v>
+        <v>0.184207471596</v>
       </c>
       <c r="R21">
-        <v>36.062985525039</v>
+        <v>1.657867244364</v>
       </c>
       <c r="S21">
-        <v>0.05272408060518334</v>
+        <v>0.002592360023501636</v>
       </c>
       <c r="T21">
-        <v>0.05272408060518334</v>
+        <v>0.002592360023501636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H22">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I22">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J22">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N22">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O22">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P22">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q22">
-        <v>0.1836102142868889</v>
+        <v>2.019020411741666</v>
       </c>
       <c r="R22">
-        <v>1.652491928582</v>
+        <v>18.171183705675</v>
       </c>
       <c r="S22">
-        <v>0.002415943005647145</v>
+        <v>0.0284137649612393</v>
       </c>
       <c r="T22">
-        <v>0.002415943005647146</v>
+        <v>0.02841376496123931</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H23">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I23">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J23">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>3.466975</v>
       </c>
       <c r="O23">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P23">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q23">
-        <v>4.150482957738888</v>
+        <v>2.877352340041667</v>
       </c>
       <c r="R23">
-        <v>37.35434661964999</v>
+        <v>25.896171060375</v>
       </c>
       <c r="S23">
-        <v>0.05461205037394789</v>
+        <v>0.04049310874974776</v>
       </c>
       <c r="T23">
-        <v>0.0546120503739479</v>
+        <v>0.04049310874974777</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H24">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I24">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J24">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N24">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O24">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P24">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q24">
-        <v>7.417275392317555</v>
+        <v>3.571697240393334</v>
       </c>
       <c r="R24">
-        <v>66.755478530858</v>
+        <v>32.14527516354</v>
       </c>
       <c r="S24">
-        <v>0.09759650177755869</v>
+        <v>0.05026465572663476</v>
       </c>
       <c r="T24">
-        <v>0.0975965017775587</v>
+        <v>0.05026465572663476</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H25">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I25">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J25">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N25">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O25">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P25">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q25">
-        <v>1.967801615943778</v>
+        <v>0.047826472155</v>
       </c>
       <c r="R25">
-        <v>17.710214543494</v>
+        <v>0.430438249395</v>
       </c>
       <c r="S25">
-        <v>0.02589233158408224</v>
+        <v>0.0006730640912962207</v>
       </c>
       <c r="T25">
-        <v>0.02589233158408224</v>
+        <v>0.0006730640912962208</v>
       </c>
     </row>
   </sheetData>
